--- a/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
+++ b/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46829C27-9C0C-48DB-9309-C12AAC6BBB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC63854-7D39-479F-A484-E1F2487D1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceNode" sheetId="4" r:id="rId1"/>
@@ -703,15 +703,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOD_HER_JSM_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_Node_02</t>
+    <t>NOD_HER_TEST_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,11 +924,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Item"/>
       <sheetName val="UseItem"/>
@@ -1116,22 +1113,22 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>PAR_MIN_ROC</v>
+            <v>PAR_MIN_CPR</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>PAR_MIN_CPR</v>
+            <v>PAR_MIN_SIL</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>PAR_MIN_SIL</v>
+            <v>PAR_MIN_GOL</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>PAR_MIN_GOL</v>
+            <v>PAR_MIN_ROC</v>
           </cell>
         </row>
       </sheetData>
@@ -1433,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6679960-071D-47CA-A646-C617E7CF622A}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1688,19 +1685,19 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1767,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85B6269-04BA-402F-8DEC-2207C5B0BE1C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
+++ b/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\2_UNITIYGAME\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC63854-7D39-479F-A484-E1F2487D1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385C40A-6FE7-4C59-B497-421446D94B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceNode" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="드롭테이블id">OFFSET(ResourceNode_DropTable!$B$4,0,0,COUNTA(ResourceNode_DropTable!$B:$B),1)</definedName>
-    <definedName name="사용템id">OFFSET([1]UseItem!$B$7,0,0,COUNTA([1]UseItem!$B:$B),1)</definedName>
+    <definedName name="사용템id">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
     <definedName name="아이템id">OFFSET([1]Item!$B$4,0,0,COUNTA([1]Item!$B:$B),1)</definedName>
     <definedName name="특수조건id">OFFSET([1]Condition!$B$4,0,0,COUNTA([1]Condition!$B:$B),1)</definedName>
   </definedNames>
@@ -420,31 +420,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>쟈스민 기본 채집물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSM_CON</t>
-  </si>
-  <si>
     <t>temporary</t>
   </si>
   <si>
-    <t>JSM_FIN</t>
-  </si>
-  <si>
     <t>JSM_DST</t>
   </si>
   <si>
-    <t>JSM_INT</t>
-  </si>
-  <si>
-    <t>쟈스민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOD_HER_JSM_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,43 +587,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_HER_JNB</t>
-  </si>
-  <si>
-    <t>ITM_HER_JSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_CON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_FIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_DST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSM_INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITM_MIN_SIL</t>
-  </si>
-  <si>
-    <t>ITM_MIN_CPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPR_CON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITM_MIN_GOL</t>
-  </si>
-  <si>
     <t>CPR_FIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,6 +667,86 @@
   <si>
     <t>Test_Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN_CPR</t>
+  </si>
+  <si>
+    <t>BBR_INT</t>
+  </si>
+  <si>
+    <t>BBR_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBR_DST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBR_FIN</t>
+  </si>
+  <si>
+    <t>BBR_CON</t>
+  </si>
+  <si>
+    <t>HER_BBR_FRW</t>
+  </si>
+  <si>
+    <t>HER_BBR_FRT</t>
+  </si>
+  <si>
+    <t>HER_CGR_FRT</t>
+  </si>
+  <si>
+    <t>별빛베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOD_MIN_ROC_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC_Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌맹이 채집물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC_INT</t>
+  </si>
+  <si>
+    <t>ROC_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC_DST</t>
+  </si>
+  <si>
+    <t>ROC_DST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC_FIN</t>
+  </si>
+  <si>
+    <t>ROC_FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC_CON</t>
+  </si>
+  <si>
+    <t>ROC_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN_ROC</t>
   </si>
 </sst>
 </file>
@@ -847,6 +881,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -903,13 +945,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -924,17 +959,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Item"/>
-      <sheetName val="UseItem"/>
-      <sheetName val="DropItem"/>
+      <sheetName val="MiscItem"/>
+      <sheetName val="ThrowableItem"/>
       <sheetName val="Weapon"/>
       <sheetName val="Armor"/>
       <sheetName val="Backpack"/>
-      <sheetName val="Pouch"/>
+      <sheetName val="SubWeapon"/>
       <sheetName val="Potion"/>
+      <sheetName val="Hone"/>
       <sheetName val="Condition"/>
     </sheetNames>
     <sheetDataSet>
@@ -951,194 +990,234 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>Item_id</v>
+            <v>id</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>ITM_HER_JSM</v>
+            <v>COIN</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>ITM_HER_JNB</v>
+            <v>HER_CGR_LEA</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>ITM_HER_RSM</v>
+            <v>HER_CGR_FRT</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>ITM_MIN_CPR</v>
+            <v>HER_BBR_FRW</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>ITM_MIN_SIL</v>
+            <v>HER_BBR_FRT</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ITM_MIN_GOL</v>
+            <v>HER_RSM_LEA</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>ITM_MIN_ROC</v>
+            <v>HER_RSM_FLW</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ITM_DRP_SCR</v>
+            <v>MIN_CPR</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ITM_WPN_001</v>
+            <v>MIN_TIN</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>ITM_WPN_002</v>
+            <v>MIN_LAD</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>ITM_WPN_003</v>
+            <v>MIN_IRN</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>ITM_WPN_004</v>
+            <v>MIN_ROC</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>ITM_WPN_005</v>
+            <v>HON_001</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>ITM_ARM_001</v>
+            <v>WPN_001</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>ITM_ARM_002</v>
+            <v>WPN_002</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>ITM_ARM_003</v>
+            <v>WPN_003</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>ITM_ARM_004</v>
+            <v>WPN_004</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>ITM_BPK_001</v>
+            <v>WPN_005</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>ITM_BPK_002</v>
+            <v>WPN_006</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>ITM_PCH_001</v>
+            <v>WPN_007</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>ITM_PCH_002</v>
+            <v>WPN_008</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>ITM_POT_001</v>
+            <v>WPN_009</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>ITM_POT_002</v>
+            <v>ARM_001</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>ITM_POT_003</v>
+            <v>ARM_002</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>ITM_POT_004</v>
+            <v>ARM_003</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>ARM_004</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>ARM_005</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>ARM_006</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ARM_007</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>BPK_001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>BPK_002</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>BPK_003</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>SWP_001</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>SWP_002</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>SWP_003</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>SWP_004</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>SWP_005</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>POT_001</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>POT_002</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>POT_003</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>POT_004</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>POT_005</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>POT_006</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>아이템 id</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>string</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>UseItem_id</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>PAR_HER_JSM</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>PAR_HER_JNB</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>PAR_HER_RSM</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>PAR_MIN_CPR</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>PAR_MIN_SIL</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>PAR_MIN_GOL</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>PAR_MIN_ROC</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
         <row r="1">
           <cell r="B1" t="str">
             <v>컨디션 id</v>
@@ -1151,7 +1230,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>Condition_id</v>
+            <v>id</v>
           </cell>
         </row>
         <row r="4">
@@ -1428,188 +1507,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6679960-071D-47CA-A646-C617E7CF622A}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1618,39 +1697,39 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1662,42 +1741,42 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1706,51 +1785,90 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J4:J6">
+  <conditionalFormatting sqref="J5:J7 N4:N32">
     <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L6">
+  <conditionalFormatting sqref="L5:L7">
     <cfRule type="expression" dxfId="7" priority="3">
-      <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 드롭테이블id, 0)))</formula>
+      <formula>AND(L5&lt;&gt;"", ISERROR(MATCH(L5, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M6">
+  <conditionalFormatting sqref="M4:M7">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 특수조건id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N32">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>AND(N4&lt;&gt;"", ISERROR(MATCH(N4, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M6" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M7" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K25 J7:J30 J4:K6 N4:N32 L4:L30" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:L7 L8:L30 N4:N32 J8:J30 K8:K25" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1765,74 +1883,74 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1847,15 +1965,15 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1870,39 +1988,50 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
-        <v>ITM_MIN_CPR/100/2/3</v>
+        <v>MIN_ROC/50/1/1~MIN_CPR/50/1/1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
+        <v>MIN_CPR/50/1/1~MIN_CPR/50/1/1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -1911,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -1923,35 +2052,35 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_MIN_CPR/33/1/2~ITM_MIN_SIL/33/1/2~ITM_MIN_GOL/34/1/1</v>
+        <v>MIN_ROC/50/2/2~MIN_CPR/50/1/2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
@@ -1959,29 +2088,18 @@
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6">
-        <v>34</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
+      <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_MIN_CPR/50/1/2~ITM_MIN_SIL/50/1/3</v>
+        <v>MIN_CPR/50/1/2~MIN_CPR/50/1/3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -1993,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -2006,16 +2124,16 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_JSM/100/1/2</v>
+        <v>HER_BBR_FRW/100/1/2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2027,19 +2145,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
+        <v>HER_BBR_FRW/100/1/2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2047,74 +2165,41 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_JSM/33/1/2~ITM_HER_JNB/33/1/2~ITM_HER_JNB/34/1/1</v>
+        <v>HER_CGR_FRT/100/1/1~2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E10">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10">
-        <v>33</v>
-      </c>
-      <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>34</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>ITM_HER_JSM/50/1/2~ITM_HER_JNB/50/1/3</v>
+        <v>HER_BBR_FRW/50/1/2~HER_BBR_FRT/67/1/2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2126,51 +2211,111 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>MIN_ROC/100/1/1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>MIN_ROC/100/2/2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>MIN_ROC/100/2/2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>MIN_ROC/100/2/2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2178,42 +2323,42 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D11">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="D4:D15">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4" xr:uid="{4EB91ED8-59EB-4D4B-BC33-56C8510D9C53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4 H4:H7" xr:uid="{4EB91ED8-59EB-4D4B-BC33-56C8510D9C53}">
       <formula1>아이템id</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L9 L11" xr:uid="{B3D1218B-899B-4FC9-998E-BB2592CC9EC5}">
       <formula1>약초id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="H4 L4:L5 L7" xr:uid="{EF120697-70A6-4536-ACD9-CA927FDA268E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L7 L4:L5" xr:uid="{EF120697-70A6-4536-ACD9-CA927FDA268E}">
       <formula1>광물id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 D5:D11 H5:H11 L6 L10" xr:uid="{822D99DA-CDD1-48A9-814E-8649AB8547E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 D5:D15 L10 L6 H8:H11" xr:uid="{822D99DA-CDD1-48A9-814E-8649AB8547E6}">
       <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
+++ b/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385C40A-6FE7-4C59-B497-421446D94B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF27D5B2-B9B6-48DF-AEF7-8C0B22C1C647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceNode" sheetId="4" r:id="rId1"/>
@@ -877,15 +877,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1509,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6679960-071D-47CA-A646-C617E7CF622A}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1849,11 +1841,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J5:J7 N4:N32">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 드롭테이블id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L5:L7">
     <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND(L5&lt;&gt;"", ISERROR(MATCH(L5, 드롭테이블id, 0)))</formula>
@@ -1862,6 +1849,11 @@
   <conditionalFormatting sqref="M4:M7">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 특수조건id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N32 J5:J7">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1882,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85B6269-04BA-402F-8DEC-2207C5B0BE1C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2324,28 +2316,28 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H7">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 아이템id, 0)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
+++ b/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF27D5B2-B9B6-48DF-AEF7-8C0B22C1C647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4CC63-9F03-4E67-8804-D084812CB998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
   <si>
     <t>쟈스민 기본 채집물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,9 +695,6 @@
     <t>HER_BBR_FRT</t>
   </si>
   <si>
-    <t>HER_CGR_FRT</t>
-  </si>
-  <si>
     <t>별빛베리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,6 +744,63 @@
   </si>
   <si>
     <t>MIN_ROC</t>
+  </si>
+  <si>
+    <t>NOD_HER_RSB_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTB_Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBR_DST</t>
+  </si>
+  <si>
+    <t>HTB_INT</t>
+  </si>
+  <si>
+    <t>HTB_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTB_DST</t>
+  </si>
+  <si>
+    <t>HTB_DST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTB_CON</t>
+  </si>
+  <si>
+    <t>HTB_CON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTB_FIN</t>
+  </si>
+  <si>
+    <t>HTB_FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛베리 기본 채집물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온기베리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온기베리 기본 채집물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HER_RSM_FRW</t>
+  </si>
+  <si>
+    <t>HER_RSM_FRT</t>
   </si>
 </sst>
 </file>
@@ -877,10 +931,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -992,211 +1054,201 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>HER_CGR_LEA</v>
+            <v>HER_BBR_FRW</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>HER_CGR_FRT</v>
+            <v>HER_BBR_FRT</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>HER_BBR_FRW</v>
+            <v>HER_RSM_FRW</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>HER_BBR_FRT</v>
+            <v>HER_RSM_FRT</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>HER_RSM_LEA</v>
+            <v>MIN_CPR</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>HER_RSM_FLW</v>
+            <v>MIN_TIN</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>MIN_CPR</v>
+            <v>MIN_LAD</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>MIN_TIN</v>
+            <v>MIN_IRN</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>MIN_LAD</v>
+            <v>MIN_ROC</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>MIN_IRN</v>
+            <v>HON_001</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>MIN_ROC</v>
+            <v>WPN_001</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>HON_001</v>
+            <v>WPN_002</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>WPN_001</v>
+            <v>WPN_003</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>WPN_002</v>
+            <v>WPN_004</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>WPN_003</v>
+            <v>WPN_005</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>WPN_004</v>
+            <v>WPN_006</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>WPN_005</v>
+            <v>WPN_007</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>WPN_006</v>
+            <v>WPN_008</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>WPN_007</v>
+            <v>WPN_009</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>WPN_008</v>
+            <v>ARM_001</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>WPN_009</v>
+            <v>ARM_002</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>ARM_001</v>
+            <v>ARM_003</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>ARM_002</v>
+            <v>ARM_004</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>ARM_003</v>
+            <v>ARM_005</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>ARM_004</v>
+            <v>ARM_006</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>ARM_005</v>
+            <v>ARM_007</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>ARM_006</v>
+            <v>BPK_001</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>ARM_007</v>
+            <v>BPK_002</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>BPK_001</v>
+            <v>BPK_003</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>BPK_002</v>
+            <v>SWP_001</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>BPK_003</v>
+            <v>SWP_002</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>SWP_001</v>
+            <v>SWP_003</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>SWP_002</v>
+            <v>SWP_004</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>SWP_003</v>
+            <v>SWP_005</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>SWP_004</v>
+            <v>POT_001</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>SWP_005</v>
+            <v>POT_002</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>POT_001</v>
+            <v>POT_003</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>POT_002</v>
+            <v>POT_004</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>POT_003</v>
+            <v>POT_005</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>POT_004</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>POT_005</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
             <v>POT_006</v>
           </cell>
         </row>
@@ -1499,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6679960-071D-47CA-A646-C617E7CF622A}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1665,13 +1717,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1689,22 +1741,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -1756,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1780,7 +1832,7 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -1792,27 +1844,27 @@
         <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1821,46 +1873,90 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>2</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>68</v>
       </c>
-      <c r="M7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>69</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O8" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L5:L7">
-    <cfRule type="expression" dxfId="7" priority="3">
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(L5&lt;&gt;"", ISERROR(MATCH(L5, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M7">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="M4:M8">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(M4&lt;&gt;"", ISERROR(MATCH(M4, 특수조건id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N32 J5:J7">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="N4:N33 J5:J8">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(J4&lt;&gt;"", ISERROR(MATCH(J4, 드롭테이블id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M7" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M8" xr:uid="{77DB5830-F024-494A-B19C-F7AD061F3384}">
       <formula1>특수조건id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:L7 L8:L30 N4:N32 J8:J30 K8:K25" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:L8 L9:L31 N4:N33 J9:J31 K9:K26" xr:uid="{F42B564B-3756-481A-AB54-7A2D4083505B}">
       <formula1>드롭테이블id</formula1>
     </dataValidation>
   </dataValidations>
@@ -1872,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85B6269-04BA-402F-8DEC-2207C5B0BE1C}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1985,11 +2081,11 @@
         <v>46</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C17" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
+        <f t="shared" ref="C4:C7" si="0">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D4,E4,F4,G4),_xlfn.TEXTJOIN("/",TRUE,H4,I4,J4,K4),_xlfn.TEXTJOIN("/",TRUE,L4,M4,N4,O4))</f>
         <v>MIN_ROC/50/1/1~MIN_CPR/50/1/1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2057,7 +2153,7 @@
         <v>MIN_ROC/50/2/2~MIN_CPR/50/1/2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -2118,14 +2214,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>HER_BBR_FRW/100/1/2</v>
+        <f t="shared" ref="C8:C15" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D8,E8,F8,G8),_xlfn.TEXTJOIN("/",TRUE,H8,I8,J8,K8),_xlfn.TEXTJOIN("/",TRUE,L8,M8,N8,O8))</f>
+        <v>MIN_ROC/100/1/1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2134,97 +2230,84 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>HER_BBR_FRW/100/1/2</v>
+        <f t="shared" si="1"/>
+        <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>HER_CGR_FRT/100/1/1~2</v>
+        <f t="shared" si="1"/>
+        <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="K10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>HER_BBR_FRW/50/1/2~HER_BBR_FRT/67/1/2</v>
+        <f t="shared" si="1"/>
+        <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11">
-        <v>67</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>MIN_ROC/100/1/1</v>
+        <f t="shared" si="1"/>
+        <v>HER_BBR_FRW/100/1/1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2235,122 +2318,269 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>MIN_ROC/100/2/2</v>
+        <f t="shared" si="1"/>
+        <v>HER_BBR_FRW/50/1/1~HER_BBR_FRT/50/1/1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>MIN_ROC/100/2/2</v>
+        <f t="shared" si="1"/>
+        <v>HER_BBR_FRW/100/1/1~HER_BBR_FRT/50/1/2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>MIN_ROC/100/2/2</v>
+        <f t="shared" si="1"/>
+        <v>HER_BBR_FRW/50/1/2~HER_BBR_FRT/50/1/2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+        <f t="shared" ref="C16:C19" si="2">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D16,E16,F16,G16),_xlfn.TEXTJOIN("/",TRUE,H16,I16,J16,K16),_xlfn.TEXTJOIN("/",TRUE,L16,M16,N16,O16))</f>
+        <v>HER_RSM_FRW/100/1/1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>HER_RSM_FRW/50/1/1~HER_RSM_FRT/50/1/1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>HER_RSM_FRW/50/1/1~HER_RSM_FRT/50/1/2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>HER_RSM_FRW/50/1/1~HER_RSM_FRT/50/1/2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D15">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="D4:D19">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(D4&lt;&gt;"", ISERROR(MATCH(D4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(H4&lt;&gt;"", ISERROR(MATCH(H4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H11">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(H8&lt;&gt;"", ISERROR(MATCH(H8, 아이템id, 0)))</formula>
+  <conditionalFormatting sqref="H12:H15">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>AND(H12&lt;&gt;"", ISERROR(MATCH(H12, 아이템id, 0)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H19">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(H17&lt;&gt;"", ISERROR(MATCH(H17, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(L4&lt;&gt;"", ISERROR(MATCH(L4, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(L8&lt;&gt;"", ISERROR(MATCH(L8, 아이템id, 0)))</formula>
+  <conditionalFormatting sqref="L12:L15">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(L12&lt;&gt;"", ISERROR(MATCH(L12, 아이템id, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="D4 H4:H7" xr:uid="{4EB91ED8-59EB-4D4B-BC33-56C8510D9C53}">
       <formula1>아이템id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L9 L11" xr:uid="{B3D1218B-899B-4FC9-998E-BB2592CC9EC5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L13 L15" xr:uid="{B3D1218B-899B-4FC9-998E-BB2592CC9EC5}">
       <formula1>약초id</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="데이터 없음" sqref="L7 L4:L5" xr:uid="{EF120697-70A6-4536-ACD9-CA927FDA268E}">
       <formula1>광물id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 D5:D15 L10 L6 H8:H11" xr:uid="{822D99DA-CDD1-48A9-814E-8649AB8547E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 L14 L6 H17:H19 D5:D19 H12:H15" xr:uid="{822D99DA-CDD1-48A9-814E-8649AB8547E6}">
       <formula1>아이템id</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
+++ b/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4CC63-9F03-4E67-8804-D084812CB998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D572592A-E846-48EE-A529-67FD9FB688A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceNode" sheetId="4" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>쟈스민 기본 채집물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,9 +689,6 @@
     <t>BBR_CON</t>
   </si>
   <si>
-    <t>HER_BBR_FRW</t>
-  </si>
-  <si>
     <t>HER_BBR_FRT</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
   <si>
     <t>온기베리 기본 채집물</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HER_RSM_FRW</t>
   </si>
   <si>
     <t>HER_RSM_FRT</t>
@@ -1557,24 +1551,24 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -1621,7 +1615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1715,15 +1709,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1741,25 +1735,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1803,12 +1797,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1832,7 +1826,7 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -1844,18 +1838,18 @@
         <v>69</v>
       </c>
       <c r="O6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1873,25 +1867,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>61</v>
       </c>
@@ -1971,19 +1965,19 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2030,7 +2024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2047,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2076,7 +2070,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -2085,7 +2079,7 @@
         <v>MIN_ROC/50/1/1~MIN_CPR/50/1/1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2110,7 +2104,7 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -2144,7 +2138,7 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>44</v>
       </c>
@@ -2153,7 +2147,7 @@
         <v>MIN_ROC/50/2/2~MIN_CPR/50/1/2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -2178,7 +2172,7 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -2212,16 +2206,16 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ref="C8:C15" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D8,E8,F8,G8),_xlfn.TEXTJOIN("/",TRUE,H8,I8,J8,K8),_xlfn.TEXTJOIN("/",TRUE,L8,M8,N8,O8))</f>
+        <f t="shared" ref="C8:C11" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D8,E8,F8,G8),_xlfn.TEXTJOIN("/",TRUE,H8,I8,J8,K8),_xlfn.TEXTJOIN("/",TRUE,L8,M8,N8,O8))</f>
         <v>MIN_ROC/100/1/1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2234,16 +2228,16 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -2256,16 +2250,16 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2277,16 +2271,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2298,13 +2292,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>HER_BBR_FRW/100/1/1</v>
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D12,E12,F12,G12),_xlfn.TEXTJOIN("/",TRUE,H12,I12,J12,K12),_xlfn.TEXTJOIN("/",TRUE,L12,M12,N12,O12))</f>
+        <v>HER_BBR_FRT/100/1/1</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>70</v>
@@ -2319,19 +2313,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>HER_BBR_FRW/50/1/1~HER_BBR_FRT/50/1/1</v>
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D13,E13,F13,G13),_xlfn.TEXTJOIN("/",TRUE,H13,I13,J13,K13),_xlfn.TEXTJOIN("/",TRUE,L13,M13,N13,O13))</f>
+        <v>HER_BBR_FRT/100/1/1</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2339,26 +2333,14 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13">
-        <v>50</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>68</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>HER_BBR_FRW/100/1/1~HER_BBR_FRT/50/1/2</v>
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D14,E14,F14,G14),_xlfn.TEXTJOIN("/",TRUE,H14,I14,J14,K14),_xlfn.TEXTJOIN("/",TRUE,L14,M14,N14,O14))</f>
+        <v>HER_BBR_FRT/100/1/2</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>70</v>
@@ -2370,34 +2352,22 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14">
-        <v>50</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>69</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>HER_BBR_FRW/50/1/2~HER_BBR_FRT/50/1/2</v>
+        <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D15,E15,F15,G15),_xlfn.TEXTJOIN("/",TRUE,H15,I15,J15,K15),_xlfn.TEXTJOIN("/",TRUE,L15,M15,N15,O15))</f>
+        <v>HER_BBR_FRT/100/1/2</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2405,29 +2375,17 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15">
-        <v>50</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C19" si="2">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D16,E16,F16,G16),_xlfn.TEXTJOIN("/",TRUE,H16,I16,J16,K16),_xlfn.TEXTJOIN("/",TRUE,L16,M16,N16,O16))</f>
-        <v>HER_RSM_FRW/100/1/1</v>
+        <v>HER_RSM_FRT/100/1/1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2439,104 +2397,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
-        <v>HER_RSM_FRW/50/1/1~HER_RSM_FRT/50/1/1</v>
+        <v>HER_RSM_FRT/100/1/1</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17">
-        <v>50</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="2"/>
-        <v>HER_RSM_FRW/50/1/1~HER_RSM_FRT/50/1/2</v>
+        <v>HER_RSM_FRT/100/1/2</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18">
         <v>100</v>
       </c>
-      <c r="E18">
-        <v>50</v>
-      </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18">
-        <v>50</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>HER_RSM_FRW/50/1/1~HER_RSM_FRT/50/1/2</v>
+        <v>HER_RSM_FRT/100/1/2</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19">
         <v>100</v>
       </c>
-      <c r="E19">
-        <v>50</v>
-      </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
         <v>2</v>
       </c>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
+++ b/Assets/JJData/Xlsx/ResourceNode_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villainouskirby\Documents\GitHub\DungeonRPG\Assets\JJData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D572592A-E846-48EE-A529-67FD9FB688A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45B184-8E5C-4D2C-9B0E-EA4F0374FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceNode" sheetId="4" r:id="rId1"/>
@@ -653,10 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSM_Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOD_HER_TEST_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,6 +791,10 @@
   </si>
   <si>
     <t>HER_RSM_FRT</t>
+  </si>
+  <si>
+    <t>BBR_Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1547,28 +1547,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6679960-071D-47CA-A646-C617E7CF622A}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.625" customWidth="1"/>
+    <col min="15" max="15" width="29.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1709,15 +1709,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1735,25 +1735,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1797,15 +1797,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1823,33 +1823,33 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>68</v>
       </c>
-      <c r="M6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
-      </c>
       <c r="O6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1867,33 +1867,33 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1911,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
         <v>2</v>
       </c>
       <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>68</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>69</v>
       </c>
       <c r="O8" t="s">
         <v>0</v>
@@ -1964,20 +1964,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85B6269-04BA-402F-8DEC-2207C5B0BE1C}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>MIN_ROC/50/1/1~MIN_CPR/50/1/1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>MIN_CPR/50/1/1~MIN_CPR/50/1/1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>44</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>MIN_ROC/50/2/2~MIN_CPR/50/1/2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -2159,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>MIN_CPR/50/1/2~MIN_CPR/50/1/3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -2193,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -2206,16 +2206,16 @@
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ref="C8:C11" si="1">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D8,E8,F8,G8),_xlfn.TEXTJOIN("/",TRUE,H8,I8,J8,K8),_xlfn.TEXTJOIN("/",TRUE,L8,M8,N8,O8))</f>
         <v>MIN_ROC/100/1/1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2228,16 +2228,16 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2271,16 +2271,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>MIN_ROC/100/2/2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2292,16 +2292,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D12,E12,F12,G12),_xlfn.TEXTJOIN("/",TRUE,H12,I12,J12,K12),_xlfn.TEXTJOIN("/",TRUE,L12,M12,N12,O12))</f>
         <v>HER_BBR_FRT/100/1/1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2313,16 +2313,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D13,E13,F13,G13),_xlfn.TEXTJOIN("/",TRUE,H13,I13,J13,K13),_xlfn.TEXTJOIN("/",TRUE,L13,M13,N13,O13))</f>
         <v>HER_BBR_FRT/100/1/1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2334,16 +2334,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D14,E14,F14,G14),_xlfn.TEXTJOIN("/",TRUE,H14,I14,J14,K14),_xlfn.TEXTJOIN("/",TRUE,L14,M14,N14,O14))</f>
         <v>HER_BBR_FRT/100/1/2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2355,16 +2355,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="str">
         <f>_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D15,E15,F15,G15),_xlfn.TEXTJOIN("/",TRUE,H15,I15,J15,K15),_xlfn.TEXTJOIN("/",TRUE,L15,M15,N15,O15))</f>
         <v>HER_BBR_FRT/100/1/2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2376,16 +2376,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C19" si="2">_xlfn.TEXTJOIN("~",TRUE,_xlfn.TEXTJOIN("/",TRUE,D16,E16,F16,G16),_xlfn.TEXTJOIN("/",TRUE,H16,I16,J16,K16),_xlfn.TEXTJOIN("/",TRUE,L16,M16,N16,O16))</f>
         <v>HER_RSM_FRT/100/1/1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2397,16 +2397,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
         <v>HER_RSM_FRT/100/1/1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2419,16 +2419,16 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="2"/>
         <v>HER_RSM_FRT/100/1/2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2441,16 +2441,16 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
         <v>HER_RSM_FRT/100/1/2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>100</v>
